--- a/ExcelReportGenerator.Tests/TestData/DataSourcePanelEmptyIEnumerableRenderTest/TestRenderEmptyIEnumerableHorizontalRowsShift.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourcePanelEmptyIEnumerableRenderTest/TestRenderEmptyIEnumerableHorizontalRowsShift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>{di:Name}</x:t>
   </x:si>
@@ -391,13 +391,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F4"/>
+  <x:dimension ref="A1:B4"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:2">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -405,10 +405,10 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="B2" s="1" t="s"/>
+    <x:row r="2" spans="1:2">
+      <x:c r="B2" s="1"/>
     </x:row>
-    <x:row r="3" spans="1:6">
+    <x:row r="3" spans="1:2">
       <x:c r="A3" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -416,7 +416,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:6">
+    <x:row r="4" spans="1:2">
       <x:c r="A4" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
